--- a/bocetoGeneral.xlsx
+++ b/bocetoGeneral.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ProdParte" sheetId="5" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>semiElab(bool)</t>
   </si>
   <si>
-    <t>cod</t>
-  </si>
-  <si>
     <t>H4251</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Ranura combinada</t>
+  </si>
+  <si>
+    <t>cod(varchar)</t>
   </si>
 </sst>
 </file>
@@ -415,8 +415,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -424,8 +424,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,13 +709,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
@@ -729,19 +730,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -756,10 +757,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -777,40 +778,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -818,16 +819,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -836,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
@@ -850,16 +851,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -868,10 +869,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="2">
         <v>0</v>
@@ -882,16 +883,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -900,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
@@ -914,13 +915,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -929,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1">
         <v>1</v>
@@ -943,13 +944,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -958,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1">
         <v>2</v>
@@ -972,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -987,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1">
         <v>3</v>
@@ -1001,13 +1002,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -1016,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="1">
         <v>4</v>
@@ -1030,13 +1031,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -1045,7 +1046,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -1059,13 +1060,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -1074,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="1">
         <v>6</v>
@@ -1088,13 +1089,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -1103,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
@@ -1117,13 +1118,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1132,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
@@ -1146,13 +1147,13 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -1161,166 +1162,161 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
       <c r="L26" s="4"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
       <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
       <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
       <c r="L30" s="4"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
       <c r="L31" s="4"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
       <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
       <c r="L33" s="4"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
       <c r="L34" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A32:K32"/>
     <mergeCell ref="A33:K33"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A25:K25"/>
@@ -1329,6 +1325,11 @@
     <mergeCell ref="A28:K28"/>
     <mergeCell ref="A29:K29"/>
     <mergeCell ref="A30:K30"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A32:K32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1357,52 +1358,52 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,40 +1442,40 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1482,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1493,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1504,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1515,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1526,7 +1527,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1537,7 +1538,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1548,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1559,7 +1560,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1570,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1581,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1592,7 +1593,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1622,67 +1623,67 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
         <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1690,16 +1691,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6">
         <v>1830</v>
@@ -1711,13 +1712,13 @@
         <v>18</v>
       </c>
       <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
         <v>102</v>
       </c>
-      <c r="M6" t="s">
-        <v>103</v>
-      </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1725,31 +1726,31 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="5">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" t="s">
         <v>104</v>
-      </c>
-      <c r="I7" s="8">
-        <v>35</v>
-      </c>
-      <c r="K7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1803,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
